--- a/2. ADGroup_list.xlsx
+++ b/2. ADGroup_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rpmpcg-my.sharepoint.com/personal/mcarder_carboline_com/Documents/PowerShell/Scripts/M365 dist group move/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rpmpcg-my.sharepoint.com/personal/mcarder_carboline_com/Documents/Documents/GitHub/M365-groups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="327" documentId="13_ncr:1_{6582F504-C6A1-4D5C-873A-07E2055EFC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70515614-337E-4D73-8D48-71017B0AD0FE}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="13_ncr:1_{6582F504-C6A1-4D5C-873A-07E2055EFC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61C6E5A5-AF46-456D-8AA7-8229406FC54A}"/>
   <bookViews>
-    <workbookView xWindow="28965" yWindow="-14145" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADGroup_list" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9027" uniqueCount="5606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9029" uniqueCount="5606">
   <si>
     <t>Name</t>
   </si>
@@ -17730,8 +17730,8 @@
   <dimension ref="A1:N969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A233" sqref="A233"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19145,6 +19145,12 @@
       <c r="J47" s="4" t="s">
         <v>278</v>
       </c>
+      <c r="L47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">

--- a/2. ADGroup_list.xlsx
+++ b/2. ADGroup_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rpmpcg-my.sharepoint.com/personal/mcarder_carboline_com/Documents/Documents/GitHub/M365-groups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="13_ncr:1_{6582F504-C6A1-4D5C-873A-07E2055EFC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61C6E5A5-AF46-456D-8AA7-8229406FC54A}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{6582F504-C6A1-4D5C-873A-07E2055EFC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FA48FB8-B227-4E01-AABE-1DBA36C97657}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADGroup_list" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9029" uniqueCount="5606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9031" uniqueCount="5606">
   <si>
     <t>Name</t>
   </si>
@@ -17730,8 +17730,8 @@
   <dimension ref="A1:N969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M47" sqref="M47"/>
+      <pane ySplit="1" topLeftCell="A706" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M729" sqref="M729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39672,6 +39672,12 @@
       <c r="J729" s="4" t="s">
         <v>4198</v>
       </c>
+      <c r="L729" t="s">
+        <v>56</v>
+      </c>
+      <c r="M729" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="730" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
